--- a/ejercicios sin transcribir/Prueba de escritorio ejercicio 4.xlsx
+++ b/ejercicios sin transcribir/Prueba de escritorio ejercicio 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\programacion\guia 1 programacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manch\OneDrive\Escritorio\guia 1\tup_prog_1_2025_guia1\ejercicios sin transcribir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F86BF1-9824-4C85-8880-00D253E77713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCAB3D6-524C-4025-B584-3890F7701E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -54,12 +54,6 @@
     <t>tf2</t>
   </si>
   <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
     <t>pf1</t>
   </si>
   <si>
@@ -90,13 +84,19 @@
     <t>por favor introduzca el precio del fertilizante 2 por litro en pesos</t>
   </si>
   <si>
-    <t>usted tiene que comprar ",tf1, " litros de fertilizante 1 para el año completo y hechar ",cf1," litros cada dosis.</t>
-  </si>
-  <si>
-    <t>y usted tiene que comprar ",tf2, " litros de fertilizante 2 para el año completo y hechar ",cf2," litros cada dosis.</t>
-  </si>
-  <si>
-    <t>el precio de todo el fertilizante en el año seria ", pf1+pf2, " costando ", pf1, " pesos el fertilizante 1 y ", pf2, " el fertilizante 2.</t>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>el precio de todo el fertilizante en el año seria 3333.33 costando 1333.33 pesos el fertilizante 1 y 2000 el fertilizante 2.</t>
+  </si>
+  <si>
+    <t>usted tiene que comprar 26.666 litros de fertilizante 1 para el año completo y hechar 6.666 litros cada dosis.</t>
+  </si>
+  <si>
+    <t>y usted tiene que comprar 20 litros de fertilizante 2 para el año completo y hechar 5 litros cada dosis.</t>
   </si>
 </sst>
 </file>
@@ -132,9 +132,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,18 +416,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D5:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="18" max="18" width="75.5703125" customWidth="1"/>
+    <col min="18" max="18" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
@@ -458,19 +457,19 @@
         <v>8</v>
       </c>
       <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
         <v>9</v>
       </c>
-      <c r="O5" t="s">
-        <v>10</v>
-      </c>
-      <c r="P5" t="s">
-        <v>11</v>
-      </c>
       <c r="Q5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R5" t="s">
         <v>12</v>
-      </c>
-      <c r="R5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="4:18" x14ac:dyDescent="0.25">
@@ -483,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="R7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.25">
@@ -498,11 +497,11 @@
       <c r="D9">
         <v>4</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9">
         <v>10</v>
       </c>
       <c r="R9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.25">
@@ -544,7 +543,7 @@
         <v>200</v>
       </c>
       <c r="R12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="4:18" x14ac:dyDescent="0.25">
@@ -630,7 +629,7 @@
         <v>26.666666666699999</v>
       </c>
       <c r="R16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.25">
@@ -685,7 +684,7 @@
         <v>50</v>
       </c>
       <c r="R18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.25">
@@ -819,7 +818,7 @@
         <v>50</v>
       </c>
       <c r="R22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.25">
@@ -945,7 +944,7 @@
         <v>2000</v>
       </c>
       <c r="R25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.25">
@@ -992,7 +991,7 @@
         <v>2000</v>
       </c>
       <c r="R26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="4:18" x14ac:dyDescent="0.25">
@@ -1039,7 +1038,7 @@
         <v>2000</v>
       </c>
       <c r="R27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
